--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43443,6 +43443,41 @@
         <v>37700</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>31300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43478,6 +43478,41 @@
         <v>31300</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>700000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43513,6 +43513,41 @@
         <v>700000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43548,6 +43548,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43583,6 +43583,43 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43620,6 +43620,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43655,6 +43655,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>50200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43690,6 +43690,41 @@
         <v>50200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43725,6 +43725,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43762,6 +43762,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43797,6 +43797,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43834,6 +43834,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>125700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,76 @@
         <v>125700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>35100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43939,6 +43939,76 @@
         <v>35100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>54900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44009,6 +44009,41 @@
         <v>54900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>66500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44044,6 +44044,43 @@
         <v>66500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44081,6 +44081,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>55100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44116,6 +44116,43 @@
         <v>55100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44153,6 +44153,80 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44227,6 +44227,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44264,6 +44264,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1982"/>
+  <dimension ref="A1:I1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70514,6 +70514,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1983"/>
+  <dimension ref="A1:I1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70549,6 +70549,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1984"/>
+  <dimension ref="A1:I1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70584,6 +70584,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1985" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1985"/>
+  <dimension ref="A1:I1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70621,6 +70621,41 @@
         </is>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>56100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1986"/>
+  <dimension ref="A1:I1987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70656,6 +70656,43 @@
         <v>56100</v>
       </c>
     </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1987" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1987"/>
+  <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70693,6 +70693,41 @@
         </is>
       </c>
     </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1988" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1988" t="n">
+        <v>31900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1988"/>
+  <dimension ref="A1:I1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70728,6 +70728,41 @@
         <v>31900</v>
       </c>
     </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1989" t="n">
+        <v>564200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1989"/>
+  <dimension ref="A1:I1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70763,6 +70763,43 @@
         <v>564200</v>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1990" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1990"/>
+  <dimension ref="A1:I1991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70800,6 +70800,43 @@
         </is>
       </c>
     </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1991" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1991"/>
+  <dimension ref="A1:I1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70837,6 +70837,43 @@
         </is>
       </c>
     </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1992" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1992"/>
+  <dimension ref="A1:I1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70874,6 +70874,43 @@
         </is>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1993" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70911,6 +70911,41 @@
         </is>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>14300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1994"/>
+  <dimension ref="A1:I1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70946,6 +70946,43 @@
         <v>14300</v>
       </c>
     </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1995" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70983,6 +70983,41 @@
         </is>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9423.xlsx
+++ b/data/9423.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71018,6 +71018,43 @@
         <v>400</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1997" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
